--- a/thesis/figures/SMILE_dataset_distribution.xlsx
+++ b/thesis/figures/SMILE_dataset_distribution.xlsx
@@ -29,25 +29,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Angry</t>
+    <t>surprise</t>
   </si>
   <si>
-    <t>Disgust</t>
+    <t>sad</t>
   </si>
   <si>
-    <t>Happy</t>
+    <t>not-relevant</t>
   </si>
   <si>
-    <t>Sad</t>
+    <t>no-code</t>
   </si>
   <si>
-    <t>Surprise</t>
+    <t>happy</t>
   </si>
   <si>
-    <t>No-code</t>
+    <t>disgust</t>
   </si>
   <si>
-    <t>Not-relevant</t>
+    <t>angry</t>
   </si>
 </sst>
 </file>
@@ -148,85 +148,31 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="AB7942"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -234,25 +180,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Angry</c:v>
+                  <c:v>surprise</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Disgust</c:v>
+                  <c:v>sad</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Happy</c:v>
+                  <c:v>not-relevant</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>No-code</c:v>
+                  <c:v>no-code</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Not-relevant</c:v>
+                  <c:v>happy</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Sad</c:v>
+                  <c:v>disgust</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Surprise</c:v>
+                  <c:v>angry</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -264,25 +210,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>57.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.0</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1157.0</c:v>
+                  <c:v>214.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1572.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>214.0</c:v>
+                  <c:v>1157.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.0</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -297,11 +243,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-524403408"/>
-        <c:axId val="-524404064"/>
+        <c:axId val="-1678905824"/>
+        <c:axId val="-1678901168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-524403408"/>
+        <c:axId val="-1678905824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -344,7 +290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-524404064"/>
+        <c:crossAx val="-1678901168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -352,7 +298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-524404064"/>
+        <c:axId val="-1678901168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,6 +318,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -402,7 +349,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-524403408"/>
+        <c:crossAx val="-1678905824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1297,7 +1244,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1307,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1315,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1323,12 +1270,12 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1157</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1572</v>
@@ -1336,29 +1283,32 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>214</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:B7">
+    <sortCondition descending="1" ref="A1:A7"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
